--- a/pred_ohlcv/54_21/2020-01-25 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3950.053946893344</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3950.053946893344</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3337.621546893344</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3337.621546893344</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1844.708746893344</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1905.960646893344</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1856.313546893344</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1859.887046893344</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1839.690646893344</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1697.172346893344</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1871.863346893344</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1835.877746893344</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1835.877746893344</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>864.1826468933438</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>864.1826468933438</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>716.2173468933438</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>787.9732468933438</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-140.3080531066562</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-432.8497531066562</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>137.5401468933438</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>5.688287761154129</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>5.688287761154129</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>359.9529877611541</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>198.1249877611541</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>557.3237877611541</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>557.5761877611541</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>552.7961877611541</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>552.7961877611541</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>460.1334877611541</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>461.3698877611541</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>324.2978877611541</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>215.9335877611541</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>293.6336877611541</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>249.7369877611541</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1957.246687761154</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>6195.917987761154</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>6195.917987761154</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>5664.273687761154</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>6310.407287761154</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>6649.407687761154</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>6667.799587761154</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>6667.799587761154</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>6665.389487761154</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6465.437887761153</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>6296.101187761154</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>6204.560887761154</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>6207.573487761154</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>6179.403287761154</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>6165.289787761154</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>5679.307987761154</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>5668.929287761154</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>5353.385987761154</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>4844.189587761154</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>4844.189587761154</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>4840.969887761154</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>3066.072787761154</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-28639.27848066788</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-28639.27848066788</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-29346.27848066788</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-29583.73658066788</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-30345.24008066789</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-30345.24008066789</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-30345.24008066789</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-30380.35208066789</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-30381.96538066789</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-30450.96538066789</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-30241.53811797331</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-30397.48291797331</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-30310.53171797331</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-30027.87841797331</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-30034.60601797331</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-30030.76131797331</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-24136.13225542973</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-26447.25015542973</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-26447.25015542973</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-19336.85673303619</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-19812.30873303619</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-19854.04473303619</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-37138.77263303619</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3950.053946893344</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3950.053946893344</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3337.621546893344</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3337.621546893344</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1844.708746893344</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1905.960646893344</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1856.313546893344</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1859.887046893344</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1839.690646893344</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1697.172346893344</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1871.863346893344</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1835.877746893344</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1835.877746893344</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>864.1826468933438</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>864.1826468933438</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>716.2173468933438</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>557.3237877611541</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>552.7961877611541</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>552.7961877611541</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>460.1334877611541</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>461.3698877611541</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>324.2978877611541</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>215.9335877611541</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>293.6336877611541</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>249.7369877611541</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>82.41078776115413</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>56.92608776115412</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1957.246687761154</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1957.246687761154</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>6195.917987761154</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>6195.917987761154</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>5664.273687761154</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>6310.407287761154</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>6649.407687761154</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>6667.799587761154</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>6667.799587761154</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>6665.389487761154</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>6465.437887761153</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>6296.101187761154</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>6204.560887761154</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>6207.573487761154</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>6179.403287761154</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>6165.289787761154</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>5679.307987761154</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>5668.929287761154</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>5353.385987761154</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-6144.762254763284</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-6176.825354763284</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-6176.825354763284</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-5937.572454763284</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-6501.158654763283</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-6501.158654763283</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-6501.158654763283</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-6501.158654763283</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-6701.158654763283</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-6926.634454763283</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-6926.634454763283</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-5573.462833626124</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-5573.462833626124</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-5573.462833626124</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-5784.812333626124</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-5398.916433626124</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-5631.804233626124</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-5631.804233626124</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-6169.698133626124</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-6266.452733626124</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-6266.452733626124</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-6265.252733626125</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-6269.318133626125</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-7524.831033626125</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-7519.831233626125</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-7542.906733626125</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-7420.906733626125</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-8068.732533626125</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-8068.732533626125</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-8059.761433626125</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-7812.988633626125</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-7785.005733626125</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-7753.442033626126</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-7709.794233626126</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-7871.863533626126</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-8197.008933626126</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-8043.720333626126</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-8043.720333626126</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-8043.720333626126</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-8046.200433626126</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-8385.427833626127</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-8390.937333626127</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-8543.735533626126</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-30050.87211712985</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-30354.22621712985</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-30301.48360109609</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-30301.48360109609</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-30297.54000109609</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-30756.54733608029</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-28639.27848066788</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-28639.27848066788</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-28639.27848066788</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-29346.27848066788</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-30013.44218066788</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-29941.35498066788</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-29940.75498066788</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-29685.97568066788</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-29685.87968066788</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-29583.73658066788</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-30345.24008066789</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-30345.24008066789</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-30345.24008066789</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-30380.35208066789</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-30381.96538066789</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-30450.96538066789</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-30030.76131797331</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-24136.13225542973</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-26447.25015542973</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-26910.73305542973</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-26840.16865542973</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-29050.30070089334</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-29851.33850089334</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-18799.52933303619</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
